--- a/data/Web_MEM_MGU/2023_07_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_07_mem_mgu.xlsx
@@ -2283,7 +2283,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1688169600</v>
+        <v>1688158800</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1688173200</v>
+        <v>1688162400</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1688176800</v>
+        <v>1688166000</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1688180400</v>
+        <v>1688169600</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1688184000</v>
+        <v>1688173200</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1688187600</v>
+        <v>1688176800</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1688191200</v>
+        <v>1688180400</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1688194800</v>
+        <v>1688184000</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1688198400</v>
+        <v>1688187600</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1688202000</v>
+        <v>1688191200</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1688205600</v>
+        <v>1688194800</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1688209200</v>
+        <v>1688198400</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1688212800</v>
+        <v>1688202000</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1688216400</v>
+        <v>1688205600</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1688220000</v>
+        <v>1688209200</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1688223600</v>
+        <v>1688212800</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1688227200</v>
+        <v>1688216400</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1688230800</v>
+        <v>1688220000</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1688234400</v>
+        <v>1688223600</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1688238000</v>
+        <v>1688227200</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1688241600</v>
+        <v>1688230800</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1688245200</v>
+        <v>1688234400</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1688248800</v>
+        <v>1688238000</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1688252400</v>
+        <v>1688241600</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1688256000</v>
+        <v>1688245200</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1688256000</v>
+        <v>1688245200</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1688259600</v>
+        <v>1688248800</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1688263200</v>
+        <v>1688252400</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1688263200</v>
+        <v>1688252400</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1688266800</v>
+        <v>1688256000</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1688270400</v>
+        <v>1688259600</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1688270400</v>
+        <v>1688259600</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1688274000</v>
+        <v>1688263200</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1688277600</v>
+        <v>1688266800</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1688277600</v>
+        <v>1688266800</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1688281200</v>
+        <v>1688270400</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1688284800</v>
+        <v>1688274000</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1688288400</v>
+        <v>1688277600</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1688292000</v>
+        <v>1688281200</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1688295600</v>
+        <v>1688284800</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1688299200</v>
+        <v>1688288400</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1688302800</v>
+        <v>1688292000</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1688306400</v>
+        <v>1688295600</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1688310000</v>
+        <v>1688299200</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1688313600</v>
+        <v>1688302800</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1688317200</v>
+        <v>1688306400</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1688320800</v>
+        <v>1688310000</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1688324400</v>
+        <v>1688313600</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1688328000</v>
+        <v>1688317200</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1688331600</v>
+        <v>1688320800</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1688335200</v>
+        <v>1688324400</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1688338800</v>
+        <v>1688328000</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1688342400</v>
+        <v>1688331600</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1688346000</v>
+        <v>1688335200</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1688349600</v>
+        <v>1688338800</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1688353200</v>
+        <v>1688342400</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1688356800</v>
+        <v>1688346000</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1688360400</v>
+        <v>1688349600</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1688364000</v>
+        <v>1688353200</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1688367600</v>
+        <v>1688356800</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1688371200</v>
+        <v>1688360400</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1688374800</v>
+        <v>1688364000</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1688378400</v>
+        <v>1688367600</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1688212800</v>
+        <v>1688202000</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1688216400</v>
+        <v>1688205600</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1688220000</v>
+        <v>1688209200</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1688223600</v>
+        <v>1688212800</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1688227200</v>
+        <v>1688216400</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1688230800</v>
+        <v>1688220000</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1688234400</v>
+        <v>1688223600</v>
       </c>
       <c r="B71" t="s">
         <v>28</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1688238000</v>
+        <v>1688227200</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1688241600</v>
+        <v>1688230800</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1688245200</v>
+        <v>1688234400</v>
       </c>
       <c r="B74" t="s">
         <v>31</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1688248800</v>
+        <v>1688238000</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1688252400</v>
+        <v>1688241600</v>
       </c>
       <c r="B76" t="s">
         <v>33</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1688256000</v>
+        <v>1688245200</v>
       </c>
       <c r="B77" t="s">
         <v>34</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1688259600</v>
+        <v>1688248800</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1688263200</v>
+        <v>1688252400</v>
       </c>
       <c r="B79" t="s">
         <v>36</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1688266800</v>
+        <v>1688256000</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1688270400</v>
+        <v>1688259600</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1688274000</v>
+        <v>1688263200</v>
       </c>
       <c r="B82" t="s">
         <v>39</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1688277600</v>
+        <v>1688266800</v>
       </c>
       <c r="B83" t="s">
         <v>40</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1688281200</v>
+        <v>1688270400</v>
       </c>
       <c r="B84" t="s">
         <v>41</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1688284800</v>
+        <v>1688274000</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1688288400</v>
+        <v>1688277600</v>
       </c>
       <c r="B86" t="s">
         <v>43</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1688292000</v>
+        <v>1688281200</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1688295600</v>
+        <v>1688284800</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1688299200</v>
+        <v>1688288400</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1688302800</v>
+        <v>1688292000</v>
       </c>
       <c r="B90" t="s">
         <v>47</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1688306400</v>
+        <v>1688295600</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1688310000</v>
+        <v>1688299200</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1688313600</v>
+        <v>1688302800</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1688317200</v>
+        <v>1688306400</v>
       </c>
       <c r="B94" t="s">
         <v>51</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1688320800</v>
+        <v>1688310000</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1688324400</v>
+        <v>1688313600</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1688328000</v>
+        <v>1688317200</v>
       </c>
       <c r="B97" t="s">
         <v>54</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1688331600</v>
+        <v>1688320800</v>
       </c>
       <c r="B98" t="s">
         <v>55</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1688335200</v>
+        <v>1688324400</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1688338800</v>
+        <v>1688328000</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1688342400</v>
+        <v>1688331600</v>
       </c>
       <c r="B101" t="s">
         <v>58</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1688346000</v>
+        <v>1688335200</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1688349600</v>
+        <v>1688338800</v>
       </c>
       <c r="B103" t="s">
         <v>60</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1688353200</v>
+        <v>1688342400</v>
       </c>
       <c r="B104" t="s">
         <v>61</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1688356800</v>
+        <v>1688346000</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1688360400</v>
+        <v>1688349600</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1688364000</v>
+        <v>1688353200</v>
       </c>
       <c r="B107" t="s">
         <v>64</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1688367600</v>
+        <v>1688356800</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1688371200</v>
+        <v>1688360400</v>
       </c>
       <c r="B109" t="s">
         <v>66</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1688374800</v>
+        <v>1688364000</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1688378400</v>
+        <v>1688367600</v>
       </c>
       <c r="B111" t="s">
         <v>68</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1688382000</v>
+        <v>1688371200</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1688385600</v>
+        <v>1688374800</v>
       </c>
       <c r="B113" t="s">
         <v>70</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1688389200</v>
+        <v>1688378400</v>
       </c>
       <c r="B114" t="s">
         <v>71</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1688392800</v>
+        <v>1688382000</v>
       </c>
       <c r="B115" t="s">
         <v>72</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1688396400</v>
+        <v>1688385600</v>
       </c>
       <c r="B116" t="s">
         <v>73</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1688400000</v>
+        <v>1688389200</v>
       </c>
       <c r="B117" t="s">
         <v>74</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1688403600</v>
+        <v>1688392800</v>
       </c>
       <c r="B118" t="s">
         <v>75</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1688407200</v>
+        <v>1688396400</v>
       </c>
       <c r="B119" t="s">
         <v>76</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1688410800</v>
+        <v>1688400000</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1688414400</v>
+        <v>1688403600</v>
       </c>
       <c r="B121" t="s">
         <v>78</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1688418000</v>
+        <v>1688407200</v>
       </c>
       <c r="B122" t="s">
         <v>79</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1688421600</v>
+        <v>1688410800</v>
       </c>
       <c r="B123" t="s">
         <v>80</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1688425200</v>
+        <v>1688414400</v>
       </c>
       <c r="B124" t="s">
         <v>81</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1688428800</v>
+        <v>1688418000</v>
       </c>
       <c r="B125" t="s">
         <v>82</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1688432400</v>
+        <v>1688421600</v>
       </c>
       <c r="B126" t="s">
         <v>83</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1688436000</v>
+        <v>1688425200</v>
       </c>
       <c r="B127" t="s">
         <v>84</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1688439600</v>
+        <v>1688428800</v>
       </c>
       <c r="B128" t="s">
         <v>85</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1688443200</v>
+        <v>1688432400</v>
       </c>
       <c r="B129" t="s">
         <v>86</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1688446800</v>
+        <v>1688436000</v>
       </c>
       <c r="B130" t="s">
         <v>87</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1688450400</v>
+        <v>1688439600</v>
       </c>
       <c r="B131" t="s">
         <v>88</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1688454000</v>
+        <v>1688443200</v>
       </c>
       <c r="B132" t="s">
         <v>89</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1688457600</v>
+        <v>1688446800</v>
       </c>
       <c r="B133" t="s">
         <v>90</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1688461200</v>
+        <v>1688450400</v>
       </c>
       <c r="B134" t="s">
         <v>91</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1688464800</v>
+        <v>1688454000</v>
       </c>
       <c r="B135" t="s">
         <v>92</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1688468400</v>
+        <v>1688457600</v>
       </c>
       <c r="B136" t="s">
         <v>93</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1688472000</v>
+        <v>1688461200</v>
       </c>
       <c r="B137" t="s">
         <v>94</v>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1688475600</v>
+        <v>1688464800</v>
       </c>
       <c r="B138" t="s">
         <v>95</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1688479200</v>
+        <v>1688468400</v>
       </c>
       <c r="B139" t="s">
         <v>96</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1688482800</v>
+        <v>1688472000</v>
       </c>
       <c r="B140" t="s">
         <v>97</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1688486400</v>
+        <v>1688475600</v>
       </c>
       <c r="B141" t="s">
         <v>98</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1688490000</v>
+        <v>1688479200</v>
       </c>
       <c r="B142" t="s">
         <v>99</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1688493600</v>
+        <v>1688482800</v>
       </c>
       <c r="B143" t="s">
         <v>100</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1688497200</v>
+        <v>1688486400</v>
       </c>
       <c r="B144" t="s">
         <v>101</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1688500800</v>
+        <v>1688490000</v>
       </c>
       <c r="B145" t="s">
         <v>102</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1688504400</v>
+        <v>1688493600</v>
       </c>
       <c r="B146" t="s">
         <v>103</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1688508000</v>
+        <v>1688497200</v>
       </c>
       <c r="B147" t="s">
         <v>104</v>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1688511600</v>
+        <v>1688500800</v>
       </c>
       <c r="B148" t="s">
         <v>105</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1688515200</v>
+        <v>1688504400</v>
       </c>
       <c r="B149" t="s">
         <v>106</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1688518800</v>
+        <v>1688508000</v>
       </c>
       <c r="B150" t="s">
         <v>107</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1688522400</v>
+        <v>1688511600</v>
       </c>
       <c r="B151" t="s">
         <v>108</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1688526000</v>
+        <v>1688515200</v>
       </c>
       <c r="B152" t="s">
         <v>109</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1688529600</v>
+        <v>1688518800</v>
       </c>
       <c r="B153" t="s">
         <v>110</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1688533200</v>
+        <v>1688522400</v>
       </c>
       <c r="B154" t="s">
         <v>111</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1688536800</v>
+        <v>1688526000</v>
       </c>
       <c r="B155" t="s">
         <v>112</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1688540400</v>
+        <v>1688529600</v>
       </c>
       <c r="B156" t="s">
         <v>113</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1688544000</v>
+        <v>1688533200</v>
       </c>
       <c r="B157" t="s">
         <v>114</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1688547600</v>
+        <v>1688536800</v>
       </c>
       <c r="B158" t="s">
         <v>115</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1688551200</v>
+        <v>1688540400</v>
       </c>
       <c r="B159" t="s">
         <v>116</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1688554800</v>
+        <v>1688544000</v>
       </c>
       <c r="B160" t="s">
         <v>117</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1688558400</v>
+        <v>1688547600</v>
       </c>
       <c r="B161" t="s">
         <v>118</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1688562000</v>
+        <v>1688551200</v>
       </c>
       <c r="B162" t="s">
         <v>119</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1688565600</v>
+        <v>1688554800</v>
       </c>
       <c r="B163" t="s">
         <v>120</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1688569200</v>
+        <v>1688558400</v>
       </c>
       <c r="B164" t="s">
         <v>121</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1688572800</v>
+        <v>1688562000</v>
       </c>
       <c r="B165" t="s">
         <v>122</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1688576400</v>
+        <v>1688565600</v>
       </c>
       <c r="B166" t="s">
         <v>123</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1688580000</v>
+        <v>1688569200</v>
       </c>
       <c r="B167" t="s">
         <v>124</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1688583600</v>
+        <v>1688572800</v>
       </c>
       <c r="B168" t="s">
         <v>125</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1688587200</v>
+        <v>1688576400</v>
       </c>
       <c r="B169" t="s">
         <v>126</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1688590800</v>
+        <v>1688580000</v>
       </c>
       <c r="B170" t="s">
         <v>127</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1688594400</v>
+        <v>1688583600</v>
       </c>
       <c r="B171" t="s">
         <v>128</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1688598000</v>
+        <v>1688587200</v>
       </c>
       <c r="B172" t="s">
         <v>129</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1688601600</v>
+        <v>1688590800</v>
       </c>
       <c r="B173" t="s">
         <v>130</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1688605200</v>
+        <v>1688594400</v>
       </c>
       <c r="B174" t="s">
         <v>131</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1688608800</v>
+        <v>1688598000</v>
       </c>
       <c r="B175" t="s">
         <v>132</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1688612400</v>
+        <v>1688601600</v>
       </c>
       <c r="B176" t="s">
         <v>133</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1688616000</v>
+        <v>1688605200</v>
       </c>
       <c r="B177" t="s">
         <v>134</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1688619600</v>
+        <v>1688608800</v>
       </c>
       <c r="B178" t="s">
         <v>135</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1688623200</v>
+        <v>1688612400</v>
       </c>
       <c r="B179" t="s">
         <v>136</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1688626800</v>
+        <v>1688616000</v>
       </c>
       <c r="B180" t="s">
         <v>137</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1688630400</v>
+        <v>1688619600</v>
       </c>
       <c r="B181" t="s">
         <v>138</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1688634000</v>
+        <v>1688623200</v>
       </c>
       <c r="B182" t="s">
         <v>139</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1688637600</v>
+        <v>1688626800</v>
       </c>
       <c r="B183" t="s">
         <v>140</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1689109200</v>
+        <v>1689098400</v>
       </c>
       <c r="B184" t="s">
         <v>141</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1689112800</v>
+        <v>1689102000</v>
       </c>
       <c r="B185" t="s">
         <v>142</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1689116400</v>
+        <v>1689105600</v>
       </c>
       <c r="B186" t="s">
         <v>143</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1689120000</v>
+        <v>1689109200</v>
       </c>
       <c r="B187" t="s">
         <v>144</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1689123600</v>
+        <v>1689112800</v>
       </c>
       <c r="B188" t="s">
         <v>145</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1689127200</v>
+        <v>1689116400</v>
       </c>
       <c r="B189" t="s">
         <v>146</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1689130800</v>
+        <v>1689120000</v>
       </c>
       <c r="B190" t="s">
         <v>147</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1689134400</v>
+        <v>1689123600</v>
       </c>
       <c r="B191" t="s">
         <v>148</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1689138000</v>
+        <v>1689127200</v>
       </c>
       <c r="B192" t="s">
         <v>149</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1689141600</v>
+        <v>1689130800</v>
       </c>
       <c r="B193" t="s">
         <v>150</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1689145200</v>
+        <v>1689134400</v>
       </c>
       <c r="B194" t="s">
         <v>151</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1689148800</v>
+        <v>1689138000</v>
       </c>
       <c r="B195" t="s">
         <v>152</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1689152400</v>
+        <v>1689141600</v>
       </c>
       <c r="B196" t="s">
         <v>153</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1689156000</v>
+        <v>1689145200</v>
       </c>
       <c r="B197" t="s">
         <v>154</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1689159600</v>
+        <v>1689148800</v>
       </c>
       <c r="B198" t="s">
         <v>155</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1689163200</v>
+        <v>1689152400</v>
       </c>
       <c r="B199" t="s">
         <v>156</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1689166800</v>
+        <v>1689156000</v>
       </c>
       <c r="B200" t="s">
         <v>157</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1689170400</v>
+        <v>1689159600</v>
       </c>
       <c r="B201" t="s">
         <v>158</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1689174000</v>
+        <v>1689163200</v>
       </c>
       <c r="B202" t="s">
         <v>159</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1689177600</v>
+        <v>1689166800</v>
       </c>
       <c r="B203" t="s">
         <v>160</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1689181200</v>
+        <v>1689170400</v>
       </c>
       <c r="B204" t="s">
         <v>161</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1689184800</v>
+        <v>1689174000</v>
       </c>
       <c r="B205" t="s">
         <v>162</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1689188400</v>
+        <v>1689177600</v>
       </c>
       <c r="B206" t="s">
         <v>163</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1689192000</v>
+        <v>1689181200</v>
       </c>
       <c r="B207" t="s">
         <v>164</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1689195600</v>
+        <v>1689184800</v>
       </c>
       <c r="B208" t="s">
         <v>165</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1689199200</v>
+        <v>1689188400</v>
       </c>
       <c r="B209" t="s">
         <v>166</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1689202800</v>
+        <v>1689192000</v>
       </c>
       <c r="B210" t="s">
         <v>167</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1689206400</v>
+        <v>1689195600</v>
       </c>
       <c r="B211" t="s">
         <v>168</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1689210000</v>
+        <v>1689199200</v>
       </c>
       <c r="B212" t="s">
         <v>169</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1689213600</v>
+        <v>1689202800</v>
       </c>
       <c r="B213" t="s">
         <v>170</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1689217200</v>
+        <v>1689206400</v>
       </c>
       <c r="B214" t="s">
         <v>171</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1689220800</v>
+        <v>1689210000</v>
       </c>
       <c r="B215" t="s">
         <v>172</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1689224400</v>
+        <v>1689213600</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1689228000</v>
+        <v>1689217200</v>
       </c>
       <c r="B217" t="s">
         <v>174</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1689231600</v>
+        <v>1689220800</v>
       </c>
       <c r="B218" t="s">
         <v>175</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1689235200</v>
+        <v>1689224400</v>
       </c>
       <c r="B219" t="s">
         <v>176</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1689238800</v>
+        <v>1689228000</v>
       </c>
       <c r="B220" t="s">
         <v>177</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1689242400</v>
+        <v>1689231600</v>
       </c>
       <c r="B221" t="s">
         <v>178</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1689246000</v>
+        <v>1689235200</v>
       </c>
       <c r="B222" t="s">
         <v>179</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1689249600</v>
+        <v>1689238800</v>
       </c>
       <c r="B223" t="s">
         <v>180</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1689253200</v>
+        <v>1689242400</v>
       </c>
       <c r="B224" t="s">
         <v>181</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1689256800</v>
+        <v>1689246000</v>
       </c>
       <c r="B225" t="s">
         <v>182</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1689260400</v>
+        <v>1689249600</v>
       </c>
       <c r="B226" t="s">
         <v>183</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1689264000</v>
+        <v>1689253200</v>
       </c>
       <c r="B227" t="s">
         <v>184</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1689267600</v>
+        <v>1689256800</v>
       </c>
       <c r="B228" t="s">
         <v>185</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1689271200</v>
+        <v>1689260400</v>
       </c>
       <c r="B229" t="s">
         <v>186</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1689274800</v>
+        <v>1689264000</v>
       </c>
       <c r="B230" t="s">
         <v>187</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1689278400</v>
+        <v>1689267600</v>
       </c>
       <c r="B231" t="s">
         <v>188</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1689282000</v>
+        <v>1689271200</v>
       </c>
       <c r="B232" t="s">
         <v>189</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1689285600</v>
+        <v>1689274800</v>
       </c>
       <c r="B233" t="s">
         <v>190</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1689289200</v>
+        <v>1689278400</v>
       </c>
       <c r="B234" t="s">
         <v>191</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1689292800</v>
+        <v>1689282000</v>
       </c>
       <c r="B235" t="s">
         <v>192</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1689296400</v>
+        <v>1689285600</v>
       </c>
       <c r="B236" t="s">
         <v>193</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1689300000</v>
+        <v>1689289200</v>
       </c>
       <c r="B237" t="s">
         <v>194</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1689303600</v>
+        <v>1689292800</v>
       </c>
       <c r="B238" t="s">
         <v>195</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1689307200</v>
+        <v>1689296400</v>
       </c>
       <c r="B239" t="s">
         <v>196</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1689310800</v>
+        <v>1689300000</v>
       </c>
       <c r="B240" t="s">
         <v>197</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1689314400</v>
+        <v>1689303600</v>
       </c>
       <c r="B241" t="s">
         <v>198</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1689318000</v>
+        <v>1689307200</v>
       </c>
       <c r="B242" t="s">
         <v>199</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1689321600</v>
+        <v>1689310800</v>
       </c>
       <c r="B243" t="s">
         <v>200</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1689325200</v>
+        <v>1689314400</v>
       </c>
       <c r="B244" t="s">
         <v>201</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1689328800</v>
+        <v>1689318000</v>
       </c>
       <c r="B245" t="s">
         <v>202</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1689332400</v>
+        <v>1689321600</v>
       </c>
       <c r="B246" t="s">
         <v>203</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1689336000</v>
+        <v>1689325200</v>
       </c>
       <c r="B247" t="s">
         <v>204</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1689339600</v>
+        <v>1689328800</v>
       </c>
       <c r="B248" t="s">
         <v>205</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1689343200</v>
+        <v>1689332400</v>
       </c>
       <c r="B249" t="s">
         <v>206</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1689346800</v>
+        <v>1689336000</v>
       </c>
       <c r="B250" t="s">
         <v>207</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1689350400</v>
+        <v>1689339600</v>
       </c>
       <c r="B251" t="s">
         <v>208</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1689354000</v>
+        <v>1689343200</v>
       </c>
       <c r="B252" t="s">
         <v>209</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1689357600</v>
+        <v>1689346800</v>
       </c>
       <c r="B253" t="s">
         <v>210</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1689361200</v>
+        <v>1689350400</v>
       </c>
       <c r="B254" t="s">
         <v>211</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1689364800</v>
+        <v>1689354000</v>
       </c>
       <c r="B255" t="s">
         <v>212</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1689368400</v>
+        <v>1689357600</v>
       </c>
       <c r="B256" t="s">
         <v>213</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1689372000</v>
+        <v>1689361200</v>
       </c>
       <c r="B257" t="s">
         <v>214</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1689375600</v>
+        <v>1689364800</v>
       </c>
       <c r="B258" t="s">
         <v>215</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1689379200</v>
+        <v>1689368400</v>
       </c>
       <c r="B259" t="s">
         <v>216</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1689382800</v>
+        <v>1689372000</v>
       </c>
       <c r="B260" t="s">
         <v>217</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1689386400</v>
+        <v>1689375600</v>
       </c>
       <c r="B261" t="s">
         <v>218</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1689390000</v>
+        <v>1689379200</v>
       </c>
       <c r="B262" t="s">
         <v>219</v>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1689393600</v>
+        <v>1689382800</v>
       </c>
       <c r="B263" t="s">
         <v>220</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1689397200</v>
+        <v>1689386400</v>
       </c>
       <c r="B264" t="s">
         <v>221</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1689400800</v>
+        <v>1689390000</v>
       </c>
       <c r="B265" t="s">
         <v>222</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1689404400</v>
+        <v>1689393600</v>
       </c>
       <c r="B266" t="s">
         <v>223</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1689408000</v>
+        <v>1689397200</v>
       </c>
       <c r="B267" t="s">
         <v>224</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1689411600</v>
+        <v>1689400800</v>
       </c>
       <c r="B268" t="s">
         <v>225</v>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1689415200</v>
+        <v>1689404400</v>
       </c>
       <c r="B269" t="s">
         <v>226</v>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1689418800</v>
+        <v>1689408000</v>
       </c>
       <c r="B270" t="s">
         <v>227</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1689422400</v>
+        <v>1689411600</v>
       </c>
       <c r="B271" t="s">
         <v>228</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1689426000</v>
+        <v>1689415200</v>
       </c>
       <c r="B272" t="s">
         <v>229</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1689429600</v>
+        <v>1689418800</v>
       </c>
       <c r="B273" t="s">
         <v>230</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1689433200</v>
+        <v>1689422400</v>
       </c>
       <c r="B274" t="s">
         <v>231</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1689436800</v>
+        <v>1689426000</v>
       </c>
       <c r="B275" t="s">
         <v>232</v>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1689440400</v>
+        <v>1689429600</v>
       </c>
       <c r="B276" t="s">
         <v>233</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1689444000</v>
+        <v>1689433200</v>
       </c>
       <c r="B277" t="s">
         <v>234</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1689447600</v>
+        <v>1689436800</v>
       </c>
       <c r="B278" t="s">
         <v>235</v>
@@ -9578,7 +9578,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1689451200</v>
+        <v>1689440400</v>
       </c>
       <c r="B279" t="s">
         <v>236</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1689454800</v>
+        <v>1689444000</v>
       </c>
       <c r="B280" t="s">
         <v>237</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1689458400</v>
+        <v>1689447600</v>
       </c>
       <c r="B281" t="s">
         <v>238</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1689462000</v>
+        <v>1689451200</v>
       </c>
       <c r="B282" t="s">
         <v>239</v>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1689465600</v>
+        <v>1689454800</v>
       </c>
       <c r="B283" t="s">
         <v>240</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1689465600</v>
+        <v>1689454800</v>
       </c>
       <c r="B284" t="s">
         <v>240</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1689469200</v>
+        <v>1689458400</v>
       </c>
       <c r="B285" t="s">
         <v>241</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1689472800</v>
+        <v>1689462000</v>
       </c>
       <c r="B286" t="s">
         <v>242</v>
@@ -9762,7 +9762,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1689472800</v>
+        <v>1689462000</v>
       </c>
       <c r="B287" t="s">
         <v>242</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1689476400</v>
+        <v>1689465600</v>
       </c>
       <c r="B288" t="s">
         <v>243</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1689480000</v>
+        <v>1689469200</v>
       </c>
       <c r="B289" t="s">
         <v>244</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1689480000</v>
+        <v>1689469200</v>
       </c>
       <c r="B290" t="s">
         <v>244</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1689483600</v>
+        <v>1689472800</v>
       </c>
       <c r="B291" t="s">
         <v>245</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1689483600</v>
+        <v>1689472800</v>
       </c>
       <c r="B292" t="s">
         <v>245</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1689487200</v>
+        <v>1689476400</v>
       </c>
       <c r="B293" t="s">
         <v>246</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1689487200</v>
+        <v>1689476400</v>
       </c>
       <c r="B294" t="s">
         <v>246</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1689490800</v>
+        <v>1689480000</v>
       </c>
       <c r="B295" t="s">
         <v>247</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1689494400</v>
+        <v>1689483600</v>
       </c>
       <c r="B296" t="s">
         <v>248</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1689498000</v>
+        <v>1689487200</v>
       </c>
       <c r="B297" t="s">
         <v>249</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1689501600</v>
+        <v>1689490800</v>
       </c>
       <c r="B298" t="s">
         <v>250</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1689505200</v>
+        <v>1689494400</v>
       </c>
       <c r="B299" t="s">
         <v>251</v>
@@ -10061,7 +10061,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1689508800</v>
+        <v>1689498000</v>
       </c>
       <c r="B300" t="s">
         <v>252</v>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1689512400</v>
+        <v>1689501600</v>
       </c>
       <c r="B301" t="s">
         <v>253</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1689516000</v>
+        <v>1689505200</v>
       </c>
       <c r="B302" t="s">
         <v>254</v>
@@ -10130,7 +10130,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1689519600</v>
+        <v>1689508800</v>
       </c>
       <c r="B303" t="s">
         <v>255</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1689523200</v>
+        <v>1689512400</v>
       </c>
       <c r="B304" t="s">
         <v>256</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1689526800</v>
+        <v>1689516000</v>
       </c>
       <c r="B305" t="s">
         <v>257</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1689530400</v>
+        <v>1689519600</v>
       </c>
       <c r="B306" t="s">
         <v>258</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1689534000</v>
+        <v>1689523200</v>
       </c>
       <c r="B307" t="s">
         <v>259</v>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1689537600</v>
+        <v>1689526800</v>
       </c>
       <c r="B308" t="s">
         <v>260</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1689541200</v>
+        <v>1689530400</v>
       </c>
       <c r="B309" t="s">
         <v>261</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1689544800</v>
+        <v>1689534000</v>
       </c>
       <c r="B310" t="s">
         <v>262</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1689548400</v>
+        <v>1689537600</v>
       </c>
       <c r="B311" t="s">
         <v>263</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1689552000</v>
+        <v>1689541200</v>
       </c>
       <c r="B312" t="s">
         <v>264</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1689555600</v>
+        <v>1689544800</v>
       </c>
       <c r="B313" t="s">
         <v>265</v>
@@ -10383,7 +10383,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1689559200</v>
+        <v>1689548400</v>
       </c>
       <c r="B314" t="s">
         <v>266</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1689562800</v>
+        <v>1689552000</v>
       </c>
       <c r="B315" t="s">
         <v>267</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1689566400</v>
+        <v>1689555600</v>
       </c>
       <c r="B316" t="s">
         <v>268</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1689570000</v>
+        <v>1689559200</v>
       </c>
       <c r="B317" t="s">
         <v>269</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1689573600</v>
+        <v>1689562800</v>
       </c>
       <c r="B318" t="s">
         <v>270</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1689577200</v>
+        <v>1689566400</v>
       </c>
       <c r="B319" t="s">
         <v>271</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1689580800</v>
+        <v>1689570000</v>
       </c>
       <c r="B320" t="s">
         <v>272</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1689584400</v>
+        <v>1689573600</v>
       </c>
       <c r="B321" t="s">
         <v>273</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1689588000</v>
+        <v>1689577200</v>
       </c>
       <c r="B322" t="s">
         <v>274</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1689591600</v>
+        <v>1689580800</v>
       </c>
       <c r="B323" t="s">
         <v>275</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1689595200</v>
+        <v>1689584400</v>
       </c>
       <c r="B324" t="s">
         <v>276</v>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1689598800</v>
+        <v>1689588000</v>
       </c>
       <c r="B325" t="s">
         <v>277</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1689602400</v>
+        <v>1689591600</v>
       </c>
       <c r="B326" t="s">
         <v>278</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1689606000</v>
+        <v>1689595200</v>
       </c>
       <c r="B327" t="s">
         <v>279</v>
@@ -10705,7 +10705,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1689609600</v>
+        <v>1689598800</v>
       </c>
       <c r="B328" t="s">
         <v>280</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1689613200</v>
+        <v>1689602400</v>
       </c>
       <c r="B329" t="s">
         <v>281</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1689616800</v>
+        <v>1689606000</v>
       </c>
       <c r="B330" t="s">
         <v>282</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1689620400</v>
+        <v>1689609600</v>
       </c>
       <c r="B331" t="s">
         <v>283</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1689624000</v>
+        <v>1689613200</v>
       </c>
       <c r="B332" t="s">
         <v>284</v>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1689627600</v>
+        <v>1689616800</v>
       </c>
       <c r="B333" t="s">
         <v>285</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1689631200</v>
+        <v>1689620400</v>
       </c>
       <c r="B334" t="s">
         <v>286</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1689634800</v>
+        <v>1689624000</v>
       </c>
       <c r="B335" t="s">
         <v>287</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1689638400</v>
+        <v>1689627600</v>
       </c>
       <c r="B336" t="s">
         <v>288</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1689642000</v>
+        <v>1689631200</v>
       </c>
       <c r="B337" t="s">
         <v>289</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1689645600</v>
+        <v>1689634800</v>
       </c>
       <c r="B338" t="s">
         <v>290</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1689649200</v>
+        <v>1689638400</v>
       </c>
       <c r="B339" t="s">
         <v>291</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1689652800</v>
+        <v>1689642000</v>
       </c>
       <c r="B340" t="s">
         <v>292</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1689656400</v>
+        <v>1689645600</v>
       </c>
       <c r="B341" t="s">
         <v>293</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1689660000</v>
+        <v>1689649200</v>
       </c>
       <c r="B342" t="s">
         <v>294</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1689663600</v>
+        <v>1689652800</v>
       </c>
       <c r="B343" t="s">
         <v>295</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1689667200</v>
+        <v>1689656400</v>
       </c>
       <c r="B344" t="s">
         <v>296</v>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1689670800</v>
+        <v>1689660000</v>
       </c>
       <c r="B345" t="s">
         <v>297</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1689674400</v>
+        <v>1689663600</v>
       </c>
       <c r="B346" t="s">
         <v>298</v>
@@ -11142,7 +11142,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1689678000</v>
+        <v>1689667200</v>
       </c>
       <c r="B347" t="s">
         <v>299</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1689681600</v>
+        <v>1689670800</v>
       </c>
       <c r="B348" t="s">
         <v>300</v>
@@ -11188,7 +11188,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1689685200</v>
+        <v>1689674400</v>
       </c>
       <c r="B349" t="s">
         <v>301</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1689688800</v>
+        <v>1689678000</v>
       </c>
       <c r="B350" t="s">
         <v>302</v>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1689692400</v>
+        <v>1689681600</v>
       </c>
       <c r="B351" t="s">
         <v>303</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1689696000</v>
+        <v>1689685200</v>
       </c>
       <c r="B352" t="s">
         <v>304</v>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1689699600</v>
+        <v>1689688800</v>
       </c>
       <c r="B353" t="s">
         <v>305</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1689703200</v>
+        <v>1689692400</v>
       </c>
       <c r="B354" t="s">
         <v>306</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1689706800</v>
+        <v>1689696000</v>
       </c>
       <c r="B355" t="s">
         <v>307</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1689710400</v>
+        <v>1689699600</v>
       </c>
       <c r="B356" t="s">
         <v>308</v>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1689714000</v>
+        <v>1689703200</v>
       </c>
       <c r="B357" t="s">
         <v>309</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1689717600</v>
+        <v>1689706800</v>
       </c>
       <c r="B358" t="s">
         <v>310</v>
@@ -11418,7 +11418,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1689721200</v>
+        <v>1689710400</v>
       </c>
       <c r="B359" t="s">
         <v>311</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1689724800</v>
+        <v>1689714000</v>
       </c>
       <c r="B360" t="s">
         <v>312</v>
@@ -11464,7 +11464,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1689728400</v>
+        <v>1689717600</v>
       </c>
       <c r="B361" t="s">
         <v>313</v>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1689732000</v>
+        <v>1689721200</v>
       </c>
       <c r="B362" t="s">
         <v>314</v>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1689735600</v>
+        <v>1689724800</v>
       </c>
       <c r="B363" t="s">
         <v>315</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1689739200</v>
+        <v>1689728400</v>
       </c>
       <c r="B364" t="s">
         <v>316</v>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1689742800</v>
+        <v>1689732000</v>
       </c>
       <c r="B365" t="s">
         <v>317</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1689746400</v>
+        <v>1689735600</v>
       </c>
       <c r="B366" t="s">
         <v>318</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1689750000</v>
+        <v>1689739200</v>
       </c>
       <c r="B367" t="s">
         <v>319</v>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1689753600</v>
+        <v>1689742800</v>
       </c>
       <c r="B368" t="s">
         <v>320</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1689757200</v>
+        <v>1689746400</v>
       </c>
       <c r="B369" t="s">
         <v>321</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1689760800</v>
+        <v>1689750000</v>
       </c>
       <c r="B370" t="s">
         <v>322</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1689764400</v>
+        <v>1689753600</v>
       </c>
       <c r="B371" t="s">
         <v>323</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1689768000</v>
+        <v>1689757200</v>
       </c>
       <c r="B372" t="s">
         <v>324</v>
@@ -11740,7 +11740,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1689771600</v>
+        <v>1689760800</v>
       </c>
       <c r="B373" t="s">
         <v>325</v>
@@ -11763,7 +11763,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1689775200</v>
+        <v>1689764400</v>
       </c>
       <c r="B374" t="s">
         <v>326</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1689778800</v>
+        <v>1689768000</v>
       </c>
       <c r="B375" t="s">
         <v>327</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1689782400</v>
+        <v>1689771600</v>
       </c>
       <c r="B376" t="s">
         <v>328</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1689786000</v>
+        <v>1689775200</v>
       </c>
       <c r="B377" t="s">
         <v>329</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1689789600</v>
+        <v>1689778800</v>
       </c>
       <c r="B378" t="s">
         <v>330</v>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1689793200</v>
+        <v>1689782400</v>
       </c>
       <c r="B379" t="s">
         <v>331</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1689796800</v>
+        <v>1689786000</v>
       </c>
       <c r="B380" t="s">
         <v>332</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1689800400</v>
+        <v>1689789600</v>
       </c>
       <c r="B381" t="s">
         <v>333</v>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1689804000</v>
+        <v>1689793200</v>
       </c>
       <c r="B382" t="s">
         <v>334</v>
@@ -11970,7 +11970,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1689807600</v>
+        <v>1689796800</v>
       </c>
       <c r="B383" t="s">
         <v>335</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1689811200</v>
+        <v>1689800400</v>
       </c>
       <c r="B384" t="s">
         <v>336</v>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1689814800</v>
+        <v>1689804000</v>
       </c>
       <c r="B385" t="s">
         <v>337</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1689818400</v>
+        <v>1689807600</v>
       </c>
       <c r="B386" t="s">
         <v>338</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1689822000</v>
+        <v>1689811200</v>
       </c>
       <c r="B387" t="s">
         <v>339</v>
@@ -12085,7 +12085,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1689825600</v>
+        <v>1689814800</v>
       </c>
       <c r="B388" t="s">
         <v>340</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1689829200</v>
+        <v>1689818400</v>
       </c>
       <c r="B389" t="s">
         <v>341</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1689832800</v>
+        <v>1689822000</v>
       </c>
       <c r="B390" t="s">
         <v>342</v>
@@ -12154,7 +12154,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1689836400</v>
+        <v>1689825600</v>
       </c>
       <c r="B391" t="s">
         <v>343</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1689840000</v>
+        <v>1689829200</v>
       </c>
       <c r="B392" t="s">
         <v>344</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1689843600</v>
+        <v>1689832800</v>
       </c>
       <c r="B393" t="s">
         <v>345</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1689847200</v>
+        <v>1689836400</v>
       </c>
       <c r="B394" t="s">
         <v>346</v>
@@ -12246,7 +12246,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1689850800</v>
+        <v>1689840000</v>
       </c>
       <c r="B395" t="s">
         <v>347</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1689854400</v>
+        <v>1689843600</v>
       </c>
       <c r="B396" t="s">
         <v>348</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1689858000</v>
+        <v>1689847200</v>
       </c>
       <c r="B397" t="s">
         <v>349</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1689861600</v>
+        <v>1689850800</v>
       </c>
       <c r="B398" t="s">
         <v>350</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1689865200</v>
+        <v>1689854400</v>
       </c>
       <c r="B399" t="s">
         <v>351</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1689868800</v>
+        <v>1689858000</v>
       </c>
       <c r="B400" t="s">
         <v>352</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1689872400</v>
+        <v>1689861600</v>
       </c>
       <c r="B401" t="s">
         <v>353</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1689876000</v>
+        <v>1689865200</v>
       </c>
       <c r="B402" t="s">
         <v>354</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1689879600</v>
+        <v>1689868800</v>
       </c>
       <c r="B403" t="s">
         <v>355</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1689883200</v>
+        <v>1689872400</v>
       </c>
       <c r="B404" t="s">
         <v>356</v>
@@ -12476,7 +12476,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1689886800</v>
+        <v>1689876000</v>
       </c>
       <c r="B405" t="s">
         <v>357</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1689890400</v>
+        <v>1689879600</v>
       </c>
       <c r="B406" t="s">
         <v>358</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1689894000</v>
+        <v>1689883200</v>
       </c>
       <c r="B407" t="s">
         <v>359</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1689897600</v>
+        <v>1689886800</v>
       </c>
       <c r="B408" t="s">
         <v>360</v>
@@ -12568,7 +12568,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1689901200</v>
+        <v>1689890400</v>
       </c>
       <c r="B409" t="s">
         <v>361</v>
@@ -12591,7 +12591,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1689904800</v>
+        <v>1689894000</v>
       </c>
       <c r="B410" t="s">
         <v>362</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1689908400</v>
+        <v>1689897600</v>
       </c>
       <c r="B411" t="s">
         <v>363</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1689912000</v>
+        <v>1689901200</v>
       </c>
       <c r="B412" t="s">
         <v>364</v>
@@ -12660,7 +12660,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1689915600</v>
+        <v>1689904800</v>
       </c>
       <c r="B413" t="s">
         <v>365</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1689919200</v>
+        <v>1689908400</v>
       </c>
       <c r="B414" t="s">
         <v>366</v>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1689922800</v>
+        <v>1689912000</v>
       </c>
       <c r="B415" t="s">
         <v>367</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1689926400</v>
+        <v>1689915600</v>
       </c>
       <c r="B416" t="s">
         <v>368</v>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1689930000</v>
+        <v>1689919200</v>
       </c>
       <c r="B417" t="s">
         <v>369</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1689933600</v>
+        <v>1689922800</v>
       </c>
       <c r="B418" t="s">
         <v>370</v>
@@ -12798,7 +12798,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1689937200</v>
+        <v>1689926400</v>
       </c>
       <c r="B419" t="s">
         <v>371</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1689940800</v>
+        <v>1689930000</v>
       </c>
       <c r="B420" t="s">
         <v>372</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1689944400</v>
+        <v>1689933600</v>
       </c>
       <c r="B421" t="s">
         <v>373</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1689948000</v>
+        <v>1689937200</v>
       </c>
       <c r="B422" t="s">
         <v>374</v>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1689951600</v>
+        <v>1689940800</v>
       </c>
       <c r="B423" t="s">
         <v>375</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1689955200</v>
+        <v>1689944400</v>
       </c>
       <c r="B424" t="s">
         <v>376</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1689958800</v>
+        <v>1689948000</v>
       </c>
       <c r="B425" t="s">
         <v>377</v>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1689962400</v>
+        <v>1689951600</v>
       </c>
       <c r="B426" t="s">
         <v>378</v>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1689966000</v>
+        <v>1689955200</v>
       </c>
       <c r="B427" t="s">
         <v>379</v>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1689969600</v>
+        <v>1689958800</v>
       </c>
       <c r="B428" t="s">
         <v>380</v>
@@ -13028,7 +13028,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1689973200</v>
+        <v>1689962400</v>
       </c>
       <c r="B429" t="s">
         <v>381</v>
@@ -13051,7 +13051,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1689976800</v>
+        <v>1689966000</v>
       </c>
       <c r="B430" t="s">
         <v>382</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1689980400</v>
+        <v>1689969600</v>
       </c>
       <c r="B431" t="s">
         <v>383</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1689984000</v>
+        <v>1689973200</v>
       </c>
       <c r="B432" t="s">
         <v>384</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1689987600</v>
+        <v>1689976800</v>
       </c>
       <c r="B433" t="s">
         <v>385</v>
@@ -13143,7 +13143,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1689991200</v>
+        <v>1689980400</v>
       </c>
       <c r="B434" t="s">
         <v>386</v>
@@ -13166,7 +13166,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1689994800</v>
+        <v>1689984000</v>
       </c>
       <c r="B435" t="s">
         <v>387</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1689998400</v>
+        <v>1689987600</v>
       </c>
       <c r="B436" t="s">
         <v>388</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1690002000</v>
+        <v>1689991200</v>
       </c>
       <c r="B437" t="s">
         <v>389</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1690005600</v>
+        <v>1689994800</v>
       </c>
       <c r="B438" t="s">
         <v>390</v>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1690009200</v>
+        <v>1689998400</v>
       </c>
       <c r="B439" t="s">
         <v>391</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1690012800</v>
+        <v>1690002000</v>
       </c>
       <c r="B440" t="s">
         <v>392</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1690016400</v>
+        <v>1690005600</v>
       </c>
       <c r="B441" t="s">
         <v>393</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1690020000</v>
+        <v>1690009200</v>
       </c>
       <c r="B442" t="s">
         <v>394</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1690023600</v>
+        <v>1690012800</v>
       </c>
       <c r="B443" t="s">
         <v>395</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1690027200</v>
+        <v>1690016400</v>
       </c>
       <c r="B444" t="s">
         <v>396</v>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1690030800</v>
+        <v>1690020000</v>
       </c>
       <c r="B445" t="s">
         <v>397</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1690034400</v>
+        <v>1690023600</v>
       </c>
       <c r="B446" t="s">
         <v>398</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1690038000</v>
+        <v>1690027200</v>
       </c>
       <c r="B447" t="s">
         <v>399</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1690041600</v>
+        <v>1690030800</v>
       </c>
       <c r="B448" t="s">
         <v>400</v>
@@ -13488,7 +13488,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1690045200</v>
+        <v>1690034400</v>
       </c>
       <c r="B449" t="s">
         <v>401</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1690048800</v>
+        <v>1690038000</v>
       </c>
       <c r="B450" t="s">
         <v>402</v>
@@ -13534,7 +13534,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1690052400</v>
+        <v>1690041600</v>
       </c>
       <c r="B451" t="s">
         <v>403</v>
@@ -13557,7 +13557,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1690056000</v>
+        <v>1690045200</v>
       </c>
       <c r="B452" t="s">
         <v>404</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1690059600</v>
+        <v>1690048800</v>
       </c>
       <c r="B453" t="s">
         <v>405</v>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1690063200</v>
+        <v>1690052400</v>
       </c>
       <c r="B454" t="s">
         <v>406</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1690066800</v>
+        <v>1690056000</v>
       </c>
       <c r="B455" t="s">
         <v>407</v>
@@ -13649,7 +13649,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1690070400</v>
+        <v>1690059600</v>
       </c>
       <c r="B456" t="s">
         <v>408</v>
@@ -13672,7 +13672,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1690074000</v>
+        <v>1690063200</v>
       </c>
       <c r="B457" t="s">
         <v>409</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1690077600</v>
+        <v>1690066800</v>
       </c>
       <c r="B458" t="s">
         <v>410</v>
@@ -13718,7 +13718,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1690077600</v>
+        <v>1690066800</v>
       </c>
       <c r="B459" t="s">
         <v>410</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1690081200</v>
+        <v>1690070400</v>
       </c>
       <c r="B460" t="s">
         <v>411</v>
@@ -13764,7 +13764,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1690084800</v>
+        <v>1690074000</v>
       </c>
       <c r="B461" t="s">
         <v>412</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1690084800</v>
+        <v>1690074000</v>
       </c>
       <c r="B462" t="s">
         <v>412</v>
@@ -13810,7 +13810,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1690088400</v>
+        <v>1690077600</v>
       </c>
       <c r="B463" t="s">
         <v>413</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1690092000</v>
+        <v>1690081200</v>
       </c>
       <c r="B464" t="s">
         <v>414</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1690092000</v>
+        <v>1690081200</v>
       </c>
       <c r="B465" t="s">
         <v>414</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1690095600</v>
+        <v>1690084800</v>
       </c>
       <c r="B466" t="s">
         <v>415</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1690099200</v>
+        <v>1690088400</v>
       </c>
       <c r="B467" t="s">
         <v>416</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1690102800</v>
+        <v>1690092000</v>
       </c>
       <c r="B468" t="s">
         <v>417</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1690106400</v>
+        <v>1690095600</v>
       </c>
       <c r="B469" t="s">
         <v>418</v>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1690110000</v>
+        <v>1690099200</v>
       </c>
       <c r="B470" t="s">
         <v>419</v>
@@ -13994,7 +13994,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1690113600</v>
+        <v>1690102800</v>
       </c>
       <c r="B471" t="s">
         <v>420</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1690117200</v>
+        <v>1690106400</v>
       </c>
       <c r="B472" t="s">
         <v>421</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1690120800</v>
+        <v>1690110000</v>
       </c>
       <c r="B473" t="s">
         <v>422</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1690124400</v>
+        <v>1690113600</v>
       </c>
       <c r="B474" t="s">
         <v>423</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1690128000</v>
+        <v>1690117200</v>
       </c>
       <c r="B475" t="s">
         <v>424</v>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1690131600</v>
+        <v>1690120800</v>
       </c>
       <c r="B476" t="s">
         <v>425</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1690135200</v>
+        <v>1690124400</v>
       </c>
       <c r="B477" t="s">
         <v>426</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1690138800</v>
+        <v>1690128000</v>
       </c>
       <c r="B478" t="s">
         <v>427</v>
@@ -14178,7 +14178,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1690142400</v>
+        <v>1690131600</v>
       </c>
       <c r="B479" t="s">
         <v>428</v>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1690146000</v>
+        <v>1690135200</v>
       </c>
       <c r="B480" t="s">
         <v>429</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1690149600</v>
+        <v>1690138800</v>
       </c>
       <c r="B481" t="s">
         <v>430</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1690153200</v>
+        <v>1690142400</v>
       </c>
       <c r="B482" t="s">
         <v>431</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1690156800</v>
+        <v>1690146000</v>
       </c>
       <c r="B483" t="s">
         <v>432</v>
@@ -14293,7 +14293,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1690160400</v>
+        <v>1690149600</v>
       </c>
       <c r="B484" t="s">
         <v>433</v>
@@ -14316,7 +14316,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1690164000</v>
+        <v>1690153200</v>
       </c>
       <c r="B485" t="s">
         <v>434</v>
@@ -14339,7 +14339,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1690167600</v>
+        <v>1690156800</v>
       </c>
       <c r="B486" t="s">
         <v>435</v>
@@ -14362,7 +14362,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1690171200</v>
+        <v>1690160400</v>
       </c>
       <c r="B487" t="s">
         <v>436</v>
@@ -14385,7 +14385,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1690174800</v>
+        <v>1690164000</v>
       </c>
       <c r="B488" t="s">
         <v>437</v>
@@ -14408,7 +14408,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1690178400</v>
+        <v>1690167600</v>
       </c>
       <c r="B489" t="s">
         <v>438</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1690182000</v>
+        <v>1690171200</v>
       </c>
       <c r="B490" t="s">
         <v>439</v>
@@ -14454,7 +14454,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1690185600</v>
+        <v>1690174800</v>
       </c>
       <c r="B491" t="s">
         <v>440</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1690189200</v>
+        <v>1690178400</v>
       </c>
       <c r="B492" t="s">
         <v>441</v>
@@ -14500,7 +14500,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1690192800</v>
+        <v>1690182000</v>
       </c>
       <c r="B493" t="s">
         <v>442</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1690196400</v>
+        <v>1690185600</v>
       </c>
       <c r="B494" t="s">
         <v>443</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1690200000</v>
+        <v>1690189200</v>
       </c>
       <c r="B495" t="s">
         <v>444</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1690203600</v>
+        <v>1690192800</v>
       </c>
       <c r="B496" t="s">
         <v>445</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1690207200</v>
+        <v>1690196400</v>
       </c>
       <c r="B497" t="s">
         <v>446</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1690210800</v>
+        <v>1690200000</v>
       </c>
       <c r="B498" t="s">
         <v>447</v>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1690214400</v>
+        <v>1690203600</v>
       </c>
       <c r="B499" t="s">
         <v>448</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1690218000</v>
+        <v>1690207200</v>
       </c>
       <c r="B500" t="s">
         <v>449</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1690221600</v>
+        <v>1690210800</v>
       </c>
       <c r="B501" t="s">
         <v>450</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1690225200</v>
+        <v>1690214400</v>
       </c>
       <c r="B502" t="s">
         <v>451</v>
@@ -14730,7 +14730,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1690228800</v>
+        <v>1690218000</v>
       </c>
       <c r="B503" t="s">
         <v>452</v>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1690232400</v>
+        <v>1690221600</v>
       </c>
       <c r="B504" t="s">
         <v>453</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1690236000</v>
+        <v>1690225200</v>
       </c>
       <c r="B505" t="s">
         <v>454</v>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1690239600</v>
+        <v>1690228800</v>
       </c>
       <c r="B506" t="s">
         <v>455</v>
@@ -14822,7 +14822,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1690243200</v>
+        <v>1690232400</v>
       </c>
       <c r="B507" t="s">
         <v>456</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1690246800</v>
+        <v>1690236000</v>
       </c>
       <c r="B508" t="s">
         <v>457</v>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1690250400</v>
+        <v>1690239600</v>
       </c>
       <c r="B509" t="s">
         <v>458</v>
@@ -14891,7 +14891,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1690254000</v>
+        <v>1690243200</v>
       </c>
       <c r="B510" t="s">
         <v>459</v>
@@ -14914,7 +14914,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1690257600</v>
+        <v>1690246800</v>
       </c>
       <c r="B511" t="s">
         <v>460</v>
@@ -14937,7 +14937,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1690261200</v>
+        <v>1690250400</v>
       </c>
       <c r="B512" t="s">
         <v>461</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1690264800</v>
+        <v>1690254000</v>
       </c>
       <c r="B513" t="s">
         <v>462</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1690268400</v>
+        <v>1690257600</v>
       </c>
       <c r="B514" t="s">
         <v>463</v>
@@ -15006,7 +15006,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1690272000</v>
+        <v>1690261200</v>
       </c>
       <c r="B515" t="s">
         <v>464</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1690106400</v>
+        <v>1690095600</v>
       </c>
       <c r="B516" t="s">
         <v>418</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1690110000</v>
+        <v>1690099200</v>
       </c>
       <c r="B517" t="s">
         <v>419</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1690113600</v>
+        <v>1690102800</v>
       </c>
       <c r="B518" t="s">
         <v>420</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1690117200</v>
+        <v>1690106400</v>
       </c>
       <c r="B519" t="s">
         <v>421</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1690120800</v>
+        <v>1690110000</v>
       </c>
       <c r="B520" t="s">
         <v>422</v>
@@ -15189,7 +15189,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1690124400</v>
+        <v>1690113600</v>
       </c>
       <c r="B521" t="s">
         <v>423</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1690128000</v>
+        <v>1690117200</v>
       </c>
       <c r="B522" t="s">
         <v>424</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1690131600</v>
+        <v>1690120800</v>
       </c>
       <c r="B523" t="s">
         <v>425</v>
@@ -15285,7 +15285,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1690135200</v>
+        <v>1690124400</v>
       </c>
       <c r="B524" t="s">
         <v>426</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1690138800</v>
+        <v>1690128000</v>
       </c>
       <c r="B525" t="s">
         <v>427</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1690142400</v>
+        <v>1690131600</v>
       </c>
       <c r="B526" t="s">
         <v>428</v>
@@ -15381,7 +15381,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1690146000</v>
+        <v>1690135200</v>
       </c>
       <c r="B527" t="s">
         <v>429</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1690149600</v>
+        <v>1690138800</v>
       </c>
       <c r="B528" t="s">
         <v>430</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1690153200</v>
+        <v>1690142400</v>
       </c>
       <c r="B529" t="s">
         <v>431</v>
@@ -15477,7 +15477,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1690156800</v>
+        <v>1690146000</v>
       </c>
       <c r="B530" t="s">
         <v>432</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1690160400</v>
+        <v>1690149600</v>
       </c>
       <c r="B531" t="s">
         <v>433</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1690164000</v>
+        <v>1690153200</v>
       </c>
       <c r="B532" t="s">
         <v>434</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1690167600</v>
+        <v>1690156800</v>
       </c>
       <c r="B533" t="s">
         <v>435</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1690171200</v>
+        <v>1690160400</v>
       </c>
       <c r="B534" t="s">
         <v>436</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1690174800</v>
+        <v>1690164000</v>
       </c>
       <c r="B535" t="s">
         <v>437</v>
@@ -15669,7 +15669,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1690178400</v>
+        <v>1690167600</v>
       </c>
       <c r="B536" t="s">
         <v>438</v>
@@ -15701,7 +15701,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1690182000</v>
+        <v>1690171200</v>
       </c>
       <c r="B537" t="s">
         <v>439</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1690185600</v>
+        <v>1690174800</v>
       </c>
       <c r="B538" t="s">
         <v>440</v>
@@ -15765,7 +15765,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1690189200</v>
+        <v>1690178400</v>
       </c>
       <c r="B539" t="s">
         <v>441</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1690192800</v>
+        <v>1690182000</v>
       </c>
       <c r="B540" t="s">
         <v>442</v>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1690196400</v>
+        <v>1690185600</v>
       </c>
       <c r="B541" t="s">
         <v>443</v>
@@ -15861,7 +15861,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1690200000</v>
+        <v>1690189200</v>
       </c>
       <c r="B542" t="s">
         <v>444</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1690203600</v>
+        <v>1690192800</v>
       </c>
       <c r="B543" t="s">
         <v>445</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1690207200</v>
+        <v>1690196400</v>
       </c>
       <c r="B544" t="s">
         <v>446</v>
@@ -15957,7 +15957,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1690210800</v>
+        <v>1690200000</v>
       </c>
       <c r="B545" t="s">
         <v>447</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1690214400</v>
+        <v>1690203600</v>
       </c>
       <c r="B546" t="s">
         <v>448</v>
@@ -16021,7 +16021,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1690218000</v>
+        <v>1690207200</v>
       </c>
       <c r="B547" t="s">
         <v>449</v>
@@ -16053,7 +16053,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1690221600</v>
+        <v>1690210800</v>
       </c>
       <c r="B548" t="s">
         <v>450</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1690225200</v>
+        <v>1690214400</v>
       </c>
       <c r="B549" t="s">
         <v>451</v>
@@ -16117,7 +16117,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1690228800</v>
+        <v>1690218000</v>
       </c>
       <c r="B550" t="s">
         <v>452</v>
@@ -16149,7 +16149,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1690232400</v>
+        <v>1690221600</v>
       </c>
       <c r="B551" t="s">
         <v>453</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1690236000</v>
+        <v>1690225200</v>
       </c>
       <c r="B552" t="s">
         <v>454</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1690239600</v>
+        <v>1690228800</v>
       </c>
       <c r="B553" t="s">
         <v>455</v>
@@ -16245,7 +16245,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1690243200</v>
+        <v>1690232400</v>
       </c>
       <c r="B554" t="s">
         <v>456</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1690246800</v>
+        <v>1690236000</v>
       </c>
       <c r="B555" t="s">
         <v>457</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1690250400</v>
+        <v>1690239600</v>
       </c>
       <c r="B556" t="s">
         <v>458</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1690254000</v>
+        <v>1690243200</v>
       </c>
       <c r="B557" t="s">
         <v>459</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1690257600</v>
+        <v>1690246800</v>
       </c>
       <c r="B558" t="s">
         <v>460</v>
@@ -16405,7 +16405,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1690261200</v>
+        <v>1690250400</v>
       </c>
       <c r="B559" t="s">
         <v>461</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1690264800</v>
+        <v>1690254000</v>
       </c>
       <c r="B560" t="s">
         <v>462</v>
@@ -16469,7 +16469,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1690268400</v>
+        <v>1690257600</v>
       </c>
       <c r="B561" t="s">
         <v>463</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1690272000</v>
+        <v>1690261200</v>
       </c>
       <c r="B562" t="s">
         <v>464</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1690275600</v>
+        <v>1690264800</v>
       </c>
       <c r="B563" t="s">
         <v>465</v>
@@ -16565,7 +16565,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1690279200</v>
+        <v>1690268400</v>
       </c>
       <c r="B564" t="s">
         <v>466</v>
@@ -16597,7 +16597,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1690282800</v>
+        <v>1690272000</v>
       </c>
       <c r="B565" t="s">
         <v>467</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1690286400</v>
+        <v>1690275600</v>
       </c>
       <c r="B566" t="s">
         <v>468</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1690290000</v>
+        <v>1690279200</v>
       </c>
       <c r="B567" t="s">
         <v>469</v>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1690293600</v>
+        <v>1690282800</v>
       </c>
       <c r="B568" t="s">
         <v>470</v>
@@ -16725,7 +16725,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1690149600</v>
+        <v>1690138800</v>
       </c>
       <c r="B569" t="s">
         <v>430</v>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1690297200</v>
+        <v>1690286400</v>
       </c>
       <c r="B570" t="s">
         <v>471</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1690300800</v>
+        <v>1690290000</v>
       </c>
       <c r="B571" t="s">
         <v>472</v>
@@ -16821,7 +16821,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1690304400</v>
+        <v>1690293600</v>
       </c>
       <c r="B572" t="s">
         <v>473</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1690308000</v>
+        <v>1690297200</v>
       </c>
       <c r="B573" t="s">
         <v>474</v>
@@ -16885,7 +16885,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1690311600</v>
+        <v>1690300800</v>
       </c>
       <c r="B574" t="s">
         <v>475</v>
@@ -16917,7 +16917,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1690315200</v>
+        <v>1690304400</v>
       </c>
       <c r="B575" t="s">
         <v>476</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1690318800</v>
+        <v>1690308000</v>
       </c>
       <c r="B576" t="s">
         <v>477</v>
@@ -16981,7 +16981,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1690322400</v>
+        <v>1690311600</v>
       </c>
       <c r="B577" t="s">
         <v>478</v>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1690326000</v>
+        <v>1690315200</v>
       </c>
       <c r="B578" t="s">
         <v>479</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1690329600</v>
+        <v>1690318800</v>
       </c>
       <c r="B579" t="s">
         <v>480</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1690333200</v>
+        <v>1690322400</v>
       </c>
       <c r="B580" t="s">
         <v>481</v>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1690336800</v>
+        <v>1690326000</v>
       </c>
       <c r="B581" t="s">
         <v>482</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1690340400</v>
+        <v>1690329600</v>
       </c>
       <c r="B582" t="s">
         <v>483</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1690344000</v>
+        <v>1690333200</v>
       </c>
       <c r="B583" t="s">
         <v>484</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1690347600</v>
+        <v>1690336800</v>
       </c>
       <c r="B584" t="s">
         <v>485</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1690351200</v>
+        <v>1690340400</v>
       </c>
       <c r="B585" t="s">
         <v>486</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1690354800</v>
+        <v>1690344000</v>
       </c>
       <c r="B586" t="s">
         <v>487</v>
@@ -17301,7 +17301,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1690358400</v>
+        <v>1690347600</v>
       </c>
       <c r="B587" t="s">
         <v>488</v>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1690362000</v>
+        <v>1690351200</v>
       </c>
       <c r="B588" t="s">
         <v>489</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1690365600</v>
+        <v>1690354800</v>
       </c>
       <c r="B589" t="s">
         <v>490</v>
@@ -17397,7 +17397,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1690369200</v>
+        <v>1690358400</v>
       </c>
       <c r="B590" t="s">
         <v>491</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1690372800</v>
+        <v>1690362000</v>
       </c>
       <c r="B591" t="s">
         <v>492</v>
@@ -17461,7 +17461,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1690376400</v>
+        <v>1690365600</v>
       </c>
       <c r="B592" t="s">
         <v>493</v>
@@ -17493,7 +17493,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1690380000</v>
+        <v>1690369200</v>
       </c>
       <c r="B593" t="s">
         <v>494</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1690383600</v>
+        <v>1690372800</v>
       </c>
       <c r="B594" t="s">
         <v>495</v>
@@ -17557,7 +17557,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1690387200</v>
+        <v>1690376400</v>
       </c>
       <c r="B595" t="s">
         <v>496</v>
@@ -17589,7 +17589,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1690390800</v>
+        <v>1690380000</v>
       </c>
       <c r="B596" t="s">
         <v>497</v>
@@ -17621,7 +17621,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1690394400</v>
+        <v>1690383600</v>
       </c>
       <c r="B597" t="s">
         <v>498</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1690398000</v>
+        <v>1690387200</v>
       </c>
       <c r="B598" t="s">
         <v>499</v>
@@ -17685,7 +17685,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1690401600</v>
+        <v>1690390800</v>
       </c>
       <c r="B599" t="s">
         <v>500</v>
@@ -17717,7 +17717,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1690405200</v>
+        <v>1690394400</v>
       </c>
       <c r="B600" t="s">
         <v>501</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1690408800</v>
+        <v>1690398000</v>
       </c>
       <c r="B601" t="s">
         <v>502</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1690412400</v>
+        <v>1690401600</v>
       </c>
       <c r="B602" t="s">
         <v>503</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1690416000</v>
+        <v>1690405200</v>
       </c>
       <c r="B603" t="s">
         <v>504</v>
@@ -17845,7 +17845,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1690419600</v>
+        <v>1690408800</v>
       </c>
       <c r="B604" t="s">
         <v>505</v>
@@ -17877,7 +17877,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1690423200</v>
+        <v>1690412400</v>
       </c>
       <c r="B605" t="s">
         <v>506</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1690426800</v>
+        <v>1690416000</v>
       </c>
       <c r="B606" t="s">
         <v>507</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1690430400</v>
+        <v>1690419600</v>
       </c>
       <c r="B607" t="s">
         <v>508</v>
@@ -17973,7 +17973,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1690434000</v>
+        <v>1690423200</v>
       </c>
       <c r="B608" t="s">
         <v>509</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1690437600</v>
+        <v>1690426800</v>
       </c>
       <c r="B609" t="s">
         <v>510</v>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1690441200</v>
+        <v>1690430400</v>
       </c>
       <c r="B610" t="s">
         <v>511</v>
@@ -18069,7 +18069,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1690444800</v>
+        <v>1690434000</v>
       </c>
       <c r="B611" t="s">
         <v>512</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1690448400</v>
+        <v>1690437600</v>
       </c>
       <c r="B612" t="s">
         <v>513</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1690452000</v>
+        <v>1690441200</v>
       </c>
       <c r="B613" t="s">
         <v>514</v>
@@ -18165,7 +18165,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1690412400</v>
+        <v>1690401600</v>
       </c>
       <c r="B614" t="s">
         <v>503</v>
@@ -18197,7 +18197,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1690416000</v>
+        <v>1690405200</v>
       </c>
       <c r="B615" t="s">
         <v>504</v>
@@ -18229,7 +18229,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1690455600</v>
+        <v>1690444800</v>
       </c>
       <c r="B616" t="s">
         <v>515</v>
@@ -18261,7 +18261,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1690459200</v>
+        <v>1690448400</v>
       </c>
       <c r="B617" t="s">
         <v>516</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1690462800</v>
+        <v>1690452000</v>
       </c>
       <c r="B618" t="s">
         <v>517</v>
@@ -18325,7 +18325,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1690466400</v>
+        <v>1690455600</v>
       </c>
       <c r="B619" t="s">
         <v>518</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1690470000</v>
+        <v>1690459200</v>
       </c>
       <c r="B620" t="s">
         <v>519</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1690473600</v>
+        <v>1690462800</v>
       </c>
       <c r="B621" t="s">
         <v>520</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1690477200</v>
+        <v>1690466400</v>
       </c>
       <c r="B622" t="s">
         <v>521</v>
@@ -18453,7 +18453,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1690480800</v>
+        <v>1690470000</v>
       </c>
       <c r="B623" t="s">
         <v>522</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1690484400</v>
+        <v>1690473600</v>
       </c>
       <c r="B624" t="s">
         <v>523</v>
@@ -18517,7 +18517,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1690488000</v>
+        <v>1690477200</v>
       </c>
       <c r="B625" t="s">
         <v>524</v>
@@ -18549,7 +18549,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1690491600</v>
+        <v>1690480800</v>
       </c>
       <c r="B626" t="s">
         <v>525</v>
@@ -18581,7 +18581,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1690495200</v>
+        <v>1690484400</v>
       </c>
       <c r="B627" t="s">
         <v>526</v>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1690498800</v>
+        <v>1690488000</v>
       </c>
       <c r="B628" t="s">
         <v>527</v>
@@ -18645,7 +18645,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1690502400</v>
+        <v>1690491600</v>
       </c>
       <c r="B629" t="s">
         <v>528</v>
@@ -18677,7 +18677,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1690506000</v>
+        <v>1690495200</v>
       </c>
       <c r="B630" t="s">
         <v>529</v>
@@ -18709,7 +18709,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1690509600</v>
+        <v>1690498800</v>
       </c>
       <c r="B631" t="s">
         <v>530</v>
@@ -18741,7 +18741,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1690513200</v>
+        <v>1690502400</v>
       </c>
       <c r="B632" t="s">
         <v>531</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1690516800</v>
+        <v>1690506000</v>
       </c>
       <c r="B633" t="s">
         <v>532</v>
@@ -18805,7 +18805,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1690520400</v>
+        <v>1690509600</v>
       </c>
       <c r="B634" t="s">
         <v>533</v>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1690524000</v>
+        <v>1690513200</v>
       </c>
       <c r="B635" t="s">
         <v>534</v>
@@ -18869,7 +18869,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1690527600</v>
+        <v>1690516800</v>
       </c>
       <c r="B636" t="s">
         <v>535</v>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1690531200</v>
+        <v>1690520400</v>
       </c>
       <c r="B637" t="s">
         <v>536</v>
@@ -18933,7 +18933,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1690534800</v>
+        <v>1690524000</v>
       </c>
       <c r="B638" t="s">
         <v>537</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1690538400</v>
+        <v>1690527600</v>
       </c>
       <c r="B639" t="s">
         <v>538</v>
@@ -18997,7 +18997,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1690542000</v>
+        <v>1690531200</v>
       </c>
       <c r="B640" t="s">
         <v>539</v>
@@ -19029,7 +19029,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1690545600</v>
+        <v>1690534800</v>
       </c>
       <c r="B641" t="s">
         <v>540</v>
@@ -19061,7 +19061,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1690549200</v>
+        <v>1690538400</v>
       </c>
       <c r="B642" t="s">
         <v>541</v>
@@ -19093,7 +19093,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1690552800</v>
+        <v>1690542000</v>
       </c>
       <c r="B643" t="s">
         <v>542</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1690556400</v>
+        <v>1690545600</v>
       </c>
       <c r="B644" t="s">
         <v>543</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1690560000</v>
+        <v>1690549200</v>
       </c>
       <c r="B645" t="s">
         <v>544</v>
@@ -19189,7 +19189,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1690563600</v>
+        <v>1690552800</v>
       </c>
       <c r="B646" t="s">
         <v>545</v>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1690567200</v>
+        <v>1690556400</v>
       </c>
       <c r="B647" t="s">
         <v>546</v>
@@ -19253,7 +19253,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1690570800</v>
+        <v>1690560000</v>
       </c>
       <c r="B648" t="s">
         <v>547</v>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1690574400</v>
+        <v>1690563600</v>
       </c>
       <c r="B649" t="s">
         <v>548</v>
@@ -19317,7 +19317,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1690578000</v>
+        <v>1690567200</v>
       </c>
       <c r="B650" t="s">
         <v>549</v>
@@ -19349,7 +19349,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1690578000</v>
+        <v>1690567200</v>
       </c>
       <c r="B651" t="s">
         <v>549</v>
@@ -19381,7 +19381,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1690581600</v>
+        <v>1690570800</v>
       </c>
       <c r="B652" t="s">
         <v>550</v>
@@ -19413,7 +19413,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1690585200</v>
+        <v>1690574400</v>
       </c>
       <c r="B653" t="s">
         <v>551</v>
@@ -19445,7 +19445,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1690588800</v>
+        <v>1690578000</v>
       </c>
       <c r="B654" t="s">
         <v>552</v>
@@ -19477,7 +19477,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1690592400</v>
+        <v>1690581600</v>
       </c>
       <c r="B655" t="s">
         <v>553</v>
@@ -19509,7 +19509,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1690592400</v>
+        <v>1690581600</v>
       </c>
       <c r="B656" t="s">
         <v>553</v>
@@ -19541,7 +19541,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1690596000</v>
+        <v>1690585200</v>
       </c>
       <c r="B657" t="s">
         <v>554</v>
@@ -19573,7 +19573,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1690599600</v>
+        <v>1690588800</v>
       </c>
       <c r="B658" t="s">
         <v>555</v>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1690603200</v>
+        <v>1690592400</v>
       </c>
       <c r="B659" t="s">
         <v>556</v>
@@ -19637,7 +19637,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1690606800</v>
+        <v>1690596000</v>
       </c>
       <c r="B660" t="s">
         <v>557</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1690610400</v>
+        <v>1690599600</v>
       </c>
       <c r="B661" t="s">
         <v>558</v>
@@ -19701,7 +19701,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1690614000</v>
+        <v>1690603200</v>
       </c>
       <c r="B662" t="s">
         <v>559</v>
@@ -19733,7 +19733,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1690617600</v>
+        <v>1690606800</v>
       </c>
       <c r="B663" t="s">
         <v>560</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1690621200</v>
+        <v>1690610400</v>
       </c>
       <c r="B664" t="s">
         <v>561</v>
@@ -19797,7 +19797,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1690624800</v>
+        <v>1690614000</v>
       </c>
       <c r="B665" t="s">
         <v>562</v>
@@ -19829,7 +19829,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1690628400</v>
+        <v>1690617600</v>
       </c>
       <c r="B666" t="s">
         <v>563</v>
@@ -19861,7 +19861,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1690632000</v>
+        <v>1690621200</v>
       </c>
       <c r="B667" t="s">
         <v>564</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1690635600</v>
+        <v>1690624800</v>
       </c>
       <c r="B668" t="s">
         <v>565</v>
@@ -19925,7 +19925,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1690639200</v>
+        <v>1690628400</v>
       </c>
       <c r="B669" t="s">
         <v>566</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1690642800</v>
+        <v>1690632000</v>
       </c>
       <c r="B670" t="s">
         <v>567</v>
@@ -19989,7 +19989,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1690646400</v>
+        <v>1690635600</v>
       </c>
       <c r="B671" t="s">
         <v>568</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1690650000</v>
+        <v>1690639200</v>
       </c>
       <c r="B672" t="s">
         <v>569</v>
@@ -20053,7 +20053,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1690653600</v>
+        <v>1690642800</v>
       </c>
       <c r="B673" t="s">
         <v>570</v>
@@ -20085,7 +20085,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1690657200</v>
+        <v>1690646400</v>
       </c>
       <c r="B674" t="s">
         <v>571</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1690660800</v>
+        <v>1690650000</v>
       </c>
       <c r="B675" t="s">
         <v>572</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1690664400</v>
+        <v>1690653600</v>
       </c>
       <c r="B676" t="s">
         <v>573</v>
@@ -20181,7 +20181,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1690668000</v>
+        <v>1690657200</v>
       </c>
       <c r="B677" t="s">
         <v>574</v>
@@ -20213,7 +20213,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1690671600</v>
+        <v>1690660800</v>
       </c>
       <c r="B678" t="s">
         <v>575</v>
@@ -20245,7 +20245,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1690675200</v>
+        <v>1690664400</v>
       </c>
       <c r="B679" t="s">
         <v>576</v>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1690675200</v>
+        <v>1690664400</v>
       </c>
       <c r="B680" t="s">
         <v>576</v>
@@ -20309,7 +20309,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1690678800</v>
+        <v>1690668000</v>
       </c>
       <c r="B681" t="s">
         <v>577</v>
@@ -20341,7 +20341,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1690678800</v>
+        <v>1690668000</v>
       </c>
       <c r="B682" t="s">
         <v>577</v>
@@ -20373,7 +20373,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1690682400</v>
+        <v>1690671600</v>
       </c>
       <c r="B683" t="s">
         <v>578</v>
@@ -20405,7 +20405,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1690682400</v>
+        <v>1690671600</v>
       </c>
       <c r="B684" t="s">
         <v>578</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1690686000</v>
+        <v>1690675200</v>
       </c>
       <c r="B685" t="s">
         <v>579</v>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1690686000</v>
+        <v>1690675200</v>
       </c>
       <c r="B686" t="s">
         <v>579</v>
@@ -20501,7 +20501,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1690689600</v>
+        <v>1690678800</v>
       </c>
       <c r="B687" t="s">
         <v>580</v>
@@ -20533,7 +20533,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1690689600</v>
+        <v>1690678800</v>
       </c>
       <c r="B688" t="s">
         <v>580</v>
@@ -20565,7 +20565,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1690693200</v>
+        <v>1690682400</v>
       </c>
       <c r="B689" t="s">
         <v>581</v>
@@ -20597,7 +20597,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1690693200</v>
+        <v>1690682400</v>
       </c>
       <c r="B690" t="s">
         <v>581</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1690696800</v>
+        <v>1690686000</v>
       </c>
       <c r="B691" t="s">
         <v>582</v>
@@ -20661,7 +20661,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1690696800</v>
+        <v>1690686000</v>
       </c>
       <c r="B692" t="s">
         <v>582</v>
@@ -20693,7 +20693,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1690700400</v>
+        <v>1690689600</v>
       </c>
       <c r="B693" t="s">
         <v>583</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1690704000</v>
+        <v>1690693200</v>
       </c>
       <c r="B694" t="s">
         <v>584</v>
@@ -20757,7 +20757,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1690707600</v>
+        <v>1690696800</v>
       </c>
       <c r="B695" t="s">
         <v>585</v>
@@ -20789,7 +20789,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1690711200</v>
+        <v>1690700400</v>
       </c>
       <c r="B696" t="s">
         <v>586</v>
@@ -20821,7 +20821,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1690714800</v>
+        <v>1690704000</v>
       </c>
       <c r="B697" t="s">
         <v>587</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1690718400</v>
+        <v>1690707600</v>
       </c>
       <c r="B698" t="s">
         <v>588</v>
@@ -20885,7 +20885,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1690722000</v>
+        <v>1690711200</v>
       </c>
       <c r="B699" t="s">
         <v>589</v>
@@ -20917,7 +20917,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1690725600</v>
+        <v>1690714800</v>
       </c>
       <c r="B700" t="s">
         <v>590</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1690729200</v>
+        <v>1690718400</v>
       </c>
       <c r="B701" t="s">
         <v>591</v>
@@ -20981,7 +20981,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1690732800</v>
+        <v>1690722000</v>
       </c>
       <c r="B702" t="s">
         <v>592</v>
@@ -21013,7 +21013,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1690736400</v>
+        <v>1690725600</v>
       </c>
       <c r="B703" t="s">
         <v>593</v>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1690740000</v>
+        <v>1690729200</v>
       </c>
       <c r="B704" t="s">
         <v>594</v>
@@ -21077,7 +21077,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1690743600</v>
+        <v>1690732800</v>
       </c>
       <c r="B705" t="s">
         <v>595</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1690747200</v>
+        <v>1690736400</v>
       </c>
       <c r="B706" t="s">
         <v>596</v>
@@ -21141,7 +21141,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1690750800</v>
+        <v>1690740000</v>
       </c>
       <c r="B707" t="s">
         <v>597</v>
@@ -21173,7 +21173,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1690750800</v>
+        <v>1690740000</v>
       </c>
       <c r="B708" t="s">
         <v>597</v>
@@ -21205,7 +21205,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1690754400</v>
+        <v>1690743600</v>
       </c>
       <c r="B709" t="s">
         <v>598</v>
@@ -21237,7 +21237,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1690758000</v>
+        <v>1690747200</v>
       </c>
       <c r="B710" t="s">
         <v>599</v>
@@ -21269,7 +21269,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1690761600</v>
+        <v>1690750800</v>
       </c>
       <c r="B711" t="s">
         <v>600</v>
@@ -21301,7 +21301,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1690765200</v>
+        <v>1690754400</v>
       </c>
       <c r="B712" t="s">
         <v>601</v>
@@ -21333,7 +21333,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1690768800</v>
+        <v>1690758000</v>
       </c>
       <c r="B713" t="s">
         <v>602</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1690772400</v>
+        <v>1690761600</v>
       </c>
       <c r="B714" t="s">
         <v>603</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1690776000</v>
+        <v>1690765200</v>
       </c>
       <c r="B715" t="s">
         <v>604</v>
@@ -21429,7 +21429,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1690779600</v>
+        <v>1690768800</v>
       </c>
       <c r="B716" t="s">
         <v>605</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1690783200</v>
+        <v>1690772400</v>
       </c>
       <c r="B717" t="s">
         <v>606</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1690786800</v>
+        <v>1690776000</v>
       </c>
       <c r="B718" t="s">
         <v>607</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1690790400</v>
+        <v>1690779600</v>
       </c>
       <c r="B719" t="s">
         <v>608</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1690794000</v>
+        <v>1690783200</v>
       </c>
       <c r="B720" t="s">
         <v>609</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1690797600</v>
+        <v>1690786800</v>
       </c>
       <c r="B721" t="s">
         <v>610</v>
@@ -21621,7 +21621,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1690801200</v>
+        <v>1690790400</v>
       </c>
       <c r="B722" t="s">
         <v>611</v>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1690650000</v>
+        <v>1690639200</v>
       </c>
       <c r="B723" t="s">
         <v>569</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1690704000</v>
+        <v>1690693200</v>
       </c>
       <c r="B724" t="s">
         <v>584</v>
@@ -21717,7 +21717,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1690714800</v>
+        <v>1690704000</v>
       </c>
       <c r="B725" t="s">
         <v>587</v>
@@ -21749,7 +21749,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1690740000</v>
+        <v>1690729200</v>
       </c>
       <c r="B726" t="s">
         <v>594</v>
@@ -21781,7 +21781,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1690743600</v>
+        <v>1690732800</v>
       </c>
       <c r="B727" t="s">
         <v>595</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1690804800</v>
+        <v>1690794000</v>
       </c>
       <c r="B728" t="s">
         <v>612</v>
@@ -21845,7 +21845,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1690808400</v>
+        <v>1690797600</v>
       </c>
       <c r="B729" t="s">
         <v>613</v>
@@ -21877,7 +21877,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1690812000</v>
+        <v>1690801200</v>
       </c>
       <c r="B730" t="s">
         <v>614</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1690815600</v>
+        <v>1690804800</v>
       </c>
       <c r="B731" t="s">
         <v>615</v>
@@ -21941,7 +21941,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1690819200</v>
+        <v>1690808400</v>
       </c>
       <c r="B732" t="s">
         <v>616</v>
@@ -21973,7 +21973,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1690822800</v>
+        <v>1690812000</v>
       </c>
       <c r="B733" t="s">
         <v>617</v>
@@ -22005,7 +22005,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1690826400</v>
+        <v>1690815600</v>
       </c>
       <c r="B734" t="s">
         <v>618</v>
@@ -22037,7 +22037,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1690830000</v>
+        <v>1690819200</v>
       </c>
       <c r="B735" t="s">
         <v>619</v>
@@ -22069,7 +22069,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1690833600</v>
+        <v>1690822800</v>
       </c>
       <c r="B736" t="s">
         <v>620</v>
@@ -22101,7 +22101,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1690837200</v>
+        <v>1690826400</v>
       </c>
       <c r="B737" t="s">
         <v>621</v>
@@ -22133,7 +22133,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1690840800</v>
+        <v>1690830000</v>
       </c>
       <c r="B738" t="s">
         <v>622</v>
@@ -22165,7 +22165,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1690844400</v>
+        <v>1690833600</v>
       </c>
       <c r="B739" t="s">
         <v>623</v>
